--- a/src/test/java/gbench/sandbox/jdbc/finance/acct/acct2_data.xlsx
+++ b/src/test/java/gbench/sandbox/jdbc/finance/acct/acct2_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\webapps\mymall\api\model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\sandbox\jdbc\finance\acct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3367B98-B172-4156-868C-24E52572C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285108D4-9D89-4592-8448-64A5C9C61B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="10" activeTab="13" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="9" activeTab="12" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="t_role" sheetId="14" r:id="rId3"/>
     <sheet name="t_permission" sheetId="15" r:id="rId4"/>
     <sheet name="t_company" sheetId="3" r:id="rId5"/>
-    <sheet name="t_product" sheetId="4" r:id="rId6"/>
-    <sheet name="t_company_product" sheetId="13" r:id="rId7"/>
-    <sheet name="t_warehouse" sheetId="6" r:id="rId8"/>
-    <sheet name="t_company_warehouse" sheetId="16" r:id="rId9"/>
-    <sheet name="t_order" sheetId="5" r:id="rId10"/>
-    <sheet name="t_billof_product" sheetId="7" r:id="rId11"/>
-    <sheet name="t_freight_order" sheetId="8" r:id="rId12"/>
-    <sheet name="t_payment" sheetId="9" r:id="rId13"/>
-    <sheet name="t_acct_policy" sheetId="10" r:id="rId14"/>
-    <sheet name="t_accts" sheetId="11" r:id="rId15"/>
-    <sheet name="t_coa" sheetId="12" r:id="rId16"/>
+    <sheet name="t_campaign" sheetId="18" r:id="rId6"/>
+    <sheet name="t_product" sheetId="4" r:id="rId7"/>
+    <sheet name="t_company_product" sheetId="13" r:id="rId8"/>
+    <sheet name="t_warehouse" sheetId="6" r:id="rId9"/>
+    <sheet name="t_company_warehouse" sheetId="16" r:id="rId10"/>
+    <sheet name="t_order" sheetId="5" r:id="rId11"/>
+    <sheet name="t_billof_product" sheetId="7" r:id="rId12"/>
+    <sheet name="t_billof_inventory" sheetId="17" r:id="rId13"/>
+    <sheet name="t_freight_order" sheetId="8" r:id="rId14"/>
+    <sheet name="t_payment" sheetId="9" r:id="rId15"/>
+    <sheet name="t_acct_policy" sheetId="10" r:id="rId16"/>
+    <sheet name="t_accts" sheetId="11" r:id="rId17"/>
+    <sheet name="t_coa" sheetId="12" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="1672">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5477,6 +5479,160 @@
   </si>
   <si>
     <t>订单甲方/买方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七夕情人节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>begtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11购物狂欢节</t>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12购物狂欢节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"双11购物狂欢节，这个可不用多说了吧！一年一度的购物盛宴，商家们可以大干一场，因为每年双11，消费能力都会达到巅峰，别错过！"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"双12购物狂欢节，双11之后的第二波购物狂潮。通常商家会以“消费者没抢到双11促销”为理由再次放送福利，尽管折扣力度和双11相比较小，但也有不少机会"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"一年末尾的浓浓冬意，亲朋好友都热衷于在圣诞节互赠礼物。所以，如果你有冬季商品要卖，这个节日促销时机绝对不能错过。冬天的商品在这个节日中格外受欢迎"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"国庆节，不同于其他国家，中国的国庆节在10月1日，而且还有七天的假期。这意味着我们的促销活动可以进行整整7天！无论你卖什么商品，都可以与国庆长假相结合，把生意做得火热"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"中秋节，吃月饼的好时机，同时也是购物的好时候。购物满xxx就送你美味的月饼，简直不能更甜"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"立秋，虽然不是正式节日，但它标志着秋天的来临。商家们开始推出‘秋天第一杯奶茶’，还有‘秋天第一支口红’或‘秋天第一件时尚衣物’，多种选择等你来抢购"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"七夕情人节，这可是个大日子！男女生的消费品都会打折促销，年轻人赶紧抓住机会送礼物给心上人，感情加分不停哦"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">campaign_month </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_qty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销活动初始导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单退回库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单移除库存</t>
+  </si>
+  <si>
+    <t>创建订单移除库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH20240105000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCHYYYYMMDD000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH20240101000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH20240105000002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5567,7 +5723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5587,6 +5743,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8747,17 +8906,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0809A7B5-F949-4F94-AB4A-C8F63E209D36}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38A6DE5-6BE8-42D9-8E17-5C5230227197}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.875" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8767,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1576</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1577</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -8786,19 +8945,239 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1613</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>45296.99722222222</v>
       </c>
     </row>
@@ -8809,10 +9188,83 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0809A7B5-F949-4F94-AB4A-C8F63E209D36}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.875" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A491D504-AE09-4D14-BD7B-F95BC5DE2CC2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8978,11 +9430,564 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBFA22-BDD8-4CD7-AF3F-D271876E5956}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>99999999999.990005</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K7">
+        <v>999</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K8">
+        <v>998</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K9">
+        <v>996.5</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K10">
+        <v>996</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45296.99722222222</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F73FA18-B987-444A-B339-09CE35D7E8C2}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9088,7 +10093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F82DD-9D92-4BA2-A7FE-9114B3F1FED4}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -9198,12 +10203,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2F96A-1206-4BE2-BA64-3DDEC9C031F1}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9616,7 +10621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF57BE-C827-48D2-B1B1-5408B794921D}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -9691,7 +10696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82ED0C5-D470-4836-91EC-2CC0CA9F9A1C}">
   <dimension ref="A1:F164"/>
   <sheetViews>
@@ -20465,6 +21470,263 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A3462-A51B-4305-8E8A-365D7E09AB66}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45607.99722222222</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45608.99722222222</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45296.99722222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF16463-48C8-4AAF-8670-417CA0ABD58B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -20713,11 +21975,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137C6B-005E-4E03-BEB3-517ADFC21587}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21554,11 +22818,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516166F9-8240-4967-89E6-E801C1B6AF8A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21637,286 +22903,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38A6DE5-6BE8-42D9-8E17-5C5230227197}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45296.99722222222</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/java/gbench/sandbox/jdbc/finance/acct/acct2_data.xlsx
+++ b/src/test/java/gbench/sandbox/jdbc/finance/acct/acct2_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\sandbox\jdbc\finance\acct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285108D4-9D89-4592-8448-64A5C9C61B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A6229-0778-456D-A67A-85145C551FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="9" activeTab="12" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="11" activeTab="15" xr2:uid="{9F52F4E2-D186-4BF8-BDC0-8A6A204FCC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="1675">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5633,6 +5633,18 @@
   </si>
   <si>
     <t>BATCH20240105000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交税费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9434,7 +9446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBFA22-BDD8-4CD7-AF3F-D271876E5956}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -10205,10 +10217,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2F96A-1206-4BE2-BA64-3DDEC9C031F1}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10611,6 +10623,121 @@
       </c>
       <c r="G17" t="s">
         <v>1629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
